--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_6_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>759722.0301025638</v>
+        <v>775040.343827137</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111176</v>
+        <v>713587.7684111181</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15478922.45806424</v>
+        <v>15478922.45806426</v>
       </c>
     </row>
     <row r="9">
@@ -656,31 +656,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>103.0088977318019</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>36.10183659455009</v>
       </c>
       <c r="D3" t="n">
-        <v>89.7613561266828</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>49.14146140445636</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,22 +1023,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,76 +1130,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,25 +1212,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>99.9044526662382</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>241.9189633854832</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>56.06257007945297</v>
       </c>
     </row>
     <row r="12">
@@ -1446,19 +1446,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>94.12001078391287</v>
       </c>
       <c r="G12" t="n">
         <v>137.0282495084215</v>
@@ -1500,22 +1500,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>8.346463858805084</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>18.12022702288998</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>241.9189633854832</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>405.7415719969023</v>
@@ -1625,7 +1625,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>47.74806282379119</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>7.425224531301852</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>43.10070109604758</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1746,13 +1746,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21.38816470214937</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>74.67247646141476</v>
@@ -1813,7 +1813,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>21.38816470214931</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>193.428909028942</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>47.74806282379119</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>46.57473665873887</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>76.07967080018497</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827553</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.252581986138</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,25 +2081,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>241.9189633854832</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>2.012959145270502</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>60.04328876407767</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>106.8276445130563</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2214,19 +2214,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>106.0890042129122</v>
+        <v>39.19479062707025</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>35.20326909892632</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>104.1189927826351</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>106.390956156355</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>113.4883178883721</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -2533,7 +2533,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
-        <v>39.1947906270704</v>
+        <v>39.19479062707041</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2573,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>89.98174747814551</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>102.5095735391671</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,13 +2615,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2631,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>2.585499925539775</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>87.30283807112627</v>
       </c>
       <c r="T27" t="n">
         <v>198.8939788055617</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2767,10 +2767,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>39.19479062707041</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,16 +2798,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>322.230768589613</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
         <v>187.7594695105699</v>
@@ -2837,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>42.44128741270552</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2874,22 +2874,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>21.79585420586351</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>95.02258546632255</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2992,13 +2992,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>96.06064116356407</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>108.750249677601</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,16 +3086,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>85.67417889435359</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>26.8558019388698</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>12.85956499965891</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,16 +3156,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3174,7 +3174,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3238,16 +3238,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>39.19479062707042</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>73.3617597609376</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>53.43612006937681</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>26.50533691882888</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,25 +3342,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
         <v>165.8272126914158</v>
@@ -3399,19 +3399,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>147.3962661676069</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>96.16248931405363</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>10.27077547947459</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>158.2525819861381</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>86.65804289016241</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>28.78393973780999</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3579,22 +3579,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>105.9588595871329</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
         <v>109.1906224126114</v>
@@ -3636,19 +3636,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>95.71876532882338</v>
       </c>
     </row>
     <row r="40">
@@ -3673,16 +3673,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.78974769572852</v>
       </c>
       <c r="H40" t="n">
-        <v>103.3249685652703</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>356.5361982079452</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3755,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,25 +3785,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0547744655478</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3834,10 +3834,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>96.83767109821697</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,28 +3864,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>112.2529003001883</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,19 +3940,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>39.295267780926</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>98.68313739545464</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>287.0328539434444</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>69.92415546597378</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4053,7 +4053,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>36.33130819079416</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4065,16 +4065,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>21.66584500200419</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4113,10 +4113,10 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>591.4512093066566</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>591.4512093066566</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D2" t="n">
-        <v>591.4512093066566</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>591.4512093066566</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>348.0024326625565</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>728.9050472788936</v>
+        <v>56.5017773736551</v>
       </c>
       <c r="C3" t="n">
-        <v>554.4520179977666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W3" t="n">
-        <v>728.9050472788936</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X3" t="n">
-        <v>728.9050472788936</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="Y3" t="n">
-        <v>728.9050472788936</v>
+        <v>224.7171143937231</v>
       </c>
     </row>
     <row r="4">
@@ -4480,10 +4480,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>761.6974622895962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>761.6974622895962</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>243.3720121938209</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C6" t="n">
-        <v>68.91898291269391</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I6" t="n">
         <v>19.28114311021272</v>
@@ -4647,22 +4647,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>619.4388494194218</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X6" t="n">
-        <v>411.587349213889</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y6" t="n">
-        <v>411.587349213889</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="7">
@@ -4741,10 +4741,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
         <v>19.28114311021272</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>962.2293816994886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
         <v>19.28114311021272</v>
@@ -4844,10 +4844,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C9" t="n">
-        <v>816.3871559026832</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D9" t="n">
-        <v>667.4527462414319</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E9" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4884,19 +4884,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C11" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D11" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E11" t="n">
-        <v>1378.603698709343</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F11" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G11" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975218</v>
@@ -5069,22 +5069,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U11" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V11" t="n">
-        <v>1622.966287987609</v>
+        <v>815.3225979570603</v>
       </c>
       <c r="W11" t="n">
-        <v>1622.966287987609</v>
+        <v>462.5539426869462</v>
       </c>
       <c r="X11" t="n">
-        <v>1622.966287987609</v>
+        <v>89.0881844258663</v>
       </c>
       <c r="Y11" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>989.6600854869342</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="C12" t="n">
-        <v>815.2070562058072</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="D12" t="n">
-        <v>666.272646544556</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="E12" t="n">
-        <v>507.0351915391004</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="F12" t="n">
         <v>360.5006335659854</v>
@@ -5118,13 +5118,13 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809357</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L12" t="n">
-        <v>236.9655055809357</v>
+        <v>147.3709770270844</v>
       </c>
       <c r="M12" t="n">
         <v>546.7891136313474</v>
@@ -5148,22 +5148,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T12" t="n">
-        <v>1374.066492846507</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U12" t="n">
-        <v>1374.066492846507</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V12" t="n">
-        <v>1374.066492846507</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W12" t="n">
-        <v>1374.066492846507</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X12" t="n">
-        <v>1365.635721271956</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.875422507002</v>
+        <v>455.5713515295337</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975218</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975218</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I13" t="n">
         <v>32.45932575975218</v>
@@ -5221,28 +5221,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="14">
@@ -5261,31 +5261,31 @@
         <v>1622.966287987609</v>
       </c>
       <c r="E14" t="n">
-        <v>1378.603698709343</v>
+        <v>1237.178035389365</v>
       </c>
       <c r="F14" t="n">
-        <v>968.7637269953004</v>
+        <v>827.338063675322</v>
       </c>
       <c r="G14" t="n">
-        <v>558.9237552812577</v>
+        <v>417.4980919612793</v>
       </c>
       <c r="H14" t="n">
-        <v>222.1153555684087</v>
+        <v>80.68969224843016</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K14" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
@@ -5331,46 +5331,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>709.8087082577354</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C15" t="n">
-        <v>709.8087082577354</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H15" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I15" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>91.88297124942881</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L15" t="n">
-        <v>389.614726231092</v>
+        <v>147.3709770270845</v>
       </c>
       <c r="M15" t="n">
-        <v>789.032862835355</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N15" t="n">
-        <v>1190.717019112288</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O15" t="n">
-        <v>1513.730526286846</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P15" t="n">
         <v>1513.730526286846</v>
@@ -5394,13 +5394,13 @@
         <v>709.8087082577354</v>
       </c>
       <c r="W15" t="n">
-        <v>709.8087082577354</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X15" t="n">
-        <v>709.8087082577354</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y15" t="n">
-        <v>709.8087082577354</v>
+        <v>39.95955255904698</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="C16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="D16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="E16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="F16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="G16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="H16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="I16" t="n">
         <v>107.8860696601711</v>
@@ -5458,28 +5458,28 @@
         <v>296.5701361642185</v>
       </c>
       <c r="R16" t="n">
-        <v>129.490276430019</v>
+        <v>129.4902764300189</v>
       </c>
       <c r="S16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="T16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="U16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="V16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="W16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="X16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.490276430019</v>
+        <v>107.8860696601711</v>
       </c>
     </row>
     <row r="17">
@@ -5501,28 +5501,28 @@
         <v>1237.178035389365</v>
       </c>
       <c r="F17" t="n">
-        <v>827.3380636753222</v>
+        <v>827.338063675322</v>
       </c>
       <c r="G17" t="n">
-        <v>417.4980919612794</v>
+        <v>417.4980919612793</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>80.68969224843016</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K17" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>247.7198513240011</v>
+        <v>79.50451430393287</v>
       </c>
       <c r="C18" t="n">
-        <v>247.7198513240011</v>
+        <v>79.50451430393287</v>
       </c>
       <c r="D18" t="n">
-        <v>247.7198513240011</v>
+        <v>79.50451430393287</v>
       </c>
       <c r="E18" t="n">
-        <v>247.7198513240011</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F18" t="n">
-        <v>247.7198513240011</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G18" t="n">
-        <v>109.3074780831714</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H18" t="n">
-        <v>109.3074780831714</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K18" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L18" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M18" t="n">
-        <v>729.6092173456783</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N18" t="n">
-        <v>1131.293373622612</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O18" t="n">
-        <v>1454.30688079717</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286847</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
@@ -5625,19 +5625,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894784</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577356</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W18" t="n">
-        <v>455.571351529534</v>
+        <v>455.5713515295337</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240011</v>
+        <v>247.7198513240009</v>
       </c>
       <c r="Y18" t="n">
-        <v>247.7198513240011</v>
+        <v>247.7198513240009</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>201.3955086876591</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K19" t="n">
         <v>40.81344334191284</v>
@@ -5680,43 +5680,43 @@
         <v>107.0302722280248</v>
       </c>
       <c r="M19" t="n">
-        <v>187.2357570984439</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N19" t="n">
         <v>270.9687512285709</v>
       </c>
       <c r="O19" t="n">
-        <v>332.2934283710736</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P19" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>361.24660160295</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>361.24660160295</v>
+        <v>254.0859912868768</v>
       </c>
       <c r="S19" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="T19" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="U19" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V19" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W19" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X19" t="n">
-        <v>361.24660160295</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y19" t="n">
-        <v>201.3955086876591</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1622.966287987609</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="C20" t="n">
-        <v>1622.966287987609</v>
+        <v>800.5649960805454</v>
       </c>
       <c r="D20" t="n">
-        <v>1622.966287987609</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="E20" t="n">
-        <v>1378.603698709343</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F20" t="n">
-        <v>968.7637269953004</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G20" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975218</v>
@@ -5777,25 +5777,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T20" t="n">
-        <v>1622.966287987609</v>
+        <v>1423.364396088703</v>
       </c>
       <c r="U20" t="n">
-        <v>1622.966287987609</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.966287987609</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="W20" t="n">
-        <v>1622.966287987609</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="X20" t="n">
-        <v>1622.966287987609</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="Y20" t="n">
-        <v>1622.966287987609</v>
+        <v>1169.527513020957</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>416.496551332512</v>
+        <v>622.9909313369358</v>
       </c>
       <c r="C21" t="n">
-        <v>242.0435220513849</v>
+        <v>448.5379020558088</v>
       </c>
       <c r="D21" t="n">
-        <v>93.10911239013367</v>
+        <v>299.6034923945575</v>
       </c>
       <c r="E21" t="n">
-        <v>32.45932575975218</v>
+        <v>140.366037389102</v>
       </c>
       <c r="F21" t="n">
-        <v>32.45932575975218</v>
+        <v>140.366037389102</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975218</v>
+        <v>140.366037389102</v>
       </c>
       <c r="H21" t="n">
         <v>32.45932575975218</v>
@@ -5829,25 +5829,25 @@
         <v>32.45932575975218</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L21" t="n">
-        <v>147.3709770270845</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M21" t="n">
-        <v>546.7891136313474</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N21" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O21" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P21" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5862,19 +5862,19 @@
         <v>1254.561044051268</v>
       </c>
       <c r="U21" t="n">
-        <v>1254.561044051268</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V21" t="n">
-        <v>1254.561044051268</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W21" t="n">
-        <v>1000.323687323067</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="X21" t="n">
-        <v>792.4721871175338</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="Y21" t="n">
-        <v>584.71188835258</v>
+        <v>791.2062683570039</v>
       </c>
     </row>
     <row r="22">
@@ -5935,10 +5935,10 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S22" t="n">
-        <v>1401.339622460484</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T22" t="n">
-        <v>1294.179012144411</v>
+        <v>1583.375590384508</v>
       </c>
       <c r="U22" t="n">
         <v>1294.179012144411</v>
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>369.2677254726013</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C23" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D23" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E23" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F23" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G23" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I23" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K23" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6011,28 +6011,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>1053.099268086286</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V23" t="n">
-        <v>722.0363807427154</v>
+        <v>1517.79558820717</v>
       </c>
       <c r="W23" t="n">
-        <v>369.2677254726013</v>
+        <v>1165.026932937056</v>
       </c>
       <c r="X23" t="n">
-        <v>369.2677254726013</v>
+        <v>791.5611746759756</v>
       </c>
       <c r="Y23" t="n">
-        <v>369.2677254726013</v>
+        <v>401.4218427001639</v>
       </c>
     </row>
     <row r="24">
@@ -6042,46 +6042,46 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>288.85934770015</v>
+        <v>321.5470195745884</v>
       </c>
       <c r="C24" t="n">
-        <v>181.3937354210034</v>
+        <v>147.0939902934614</v>
       </c>
       <c r="D24" t="n">
-        <v>32.45932575975219</v>
+        <v>147.0939902934614</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I24" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K24" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L24" t="n">
-        <v>534.6972605625989</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M24" t="n">
-        <v>934.1153971668618</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N24" t="n">
-        <v>1299.952780813051</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O24" t="n">
-        <v>1622.966287987609</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
         <v>1622.966287987609</v>
@@ -6096,22 +6096,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T24" t="n">
-        <v>1422.063279093103</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U24" t="n">
-        <v>1193.860611630581</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V24" t="n">
-        <v>958.7085033988383</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W24" t="n">
-        <v>704.4711466706367</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="X24" t="n">
-        <v>496.6196464651039</v>
+        <v>697.5226553596103</v>
       </c>
       <c r="Y24" t="n">
-        <v>288.85934770015</v>
+        <v>489.7623565946564</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L25" t="n">
         <v>107.0302722280248</v>
@@ -6181,16 +6181,16 @@
         <v>72.05002336285361</v>
       </c>
       <c r="V25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1236.366447923487</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="C26" t="n">
-        <v>867.4039309830757</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D26" t="n">
-        <v>509.1382323763252</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E26" t="n">
-        <v>123.349979778081</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F26" t="n">
-        <v>123.349979778081</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G26" t="n">
-        <v>123.349979778081</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
-        <v>123.349979778081</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I26" t="n">
         <v>32.45932575975218</v>
@@ -6248,28 +6248,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1519.421264210673</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.966287987609</v>
+        <v>1519.421264210673</v>
       </c>
       <c r="T26" t="n">
-        <v>1622.966287987609</v>
+        <v>1519.421264210673</v>
       </c>
       <c r="U26" t="n">
-        <v>1622.966287987609</v>
+        <v>1519.421264210673</v>
       </c>
       <c r="V26" t="n">
-        <v>1622.966287987609</v>
+        <v>1519.421264210673</v>
       </c>
       <c r="W26" t="n">
-        <v>1622.966287987609</v>
+        <v>1166.652608940559</v>
       </c>
       <c r="X26" t="n">
-        <v>1622.966287987609</v>
+        <v>1166.652608940559</v>
       </c>
       <c r="Y26" t="n">
-        <v>1622.966287987609</v>
+        <v>776.5132769647469</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>288.8593477001497</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C27" t="n">
-        <v>114.4063184190227</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L27" t="n">
         <v>147.3709770270845</v>
@@ -6330,25 +6330,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1534.78160306728</v>
       </c>
       <c r="T27" t="n">
-        <v>1422.063279093102</v>
+        <v>1333.878594172773</v>
       </c>
       <c r="U27" t="n">
-        <v>1193.860611630581</v>
+        <v>1105.675926710251</v>
       </c>
       <c r="V27" t="n">
-        <v>958.708503398838</v>
+        <v>870.5238184785085</v>
       </c>
       <c r="W27" t="n">
-        <v>704.4711466706365</v>
+        <v>616.2864617503069</v>
       </c>
       <c r="X27" t="n">
-        <v>496.6196464651036</v>
+        <v>408.4349615447741</v>
       </c>
       <c r="Y27" t="n">
-        <v>288.8593477001497</v>
+        <v>200.6746627798202</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
       <c r="G28" t="n">
         <v>32.45932575975218</v>
@@ -6415,19 +6415,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>72.05002336285361</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975218</v>
+        <v>140.45402245942</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>222.1153555684087</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="C29" t="n">
-        <v>222.1153555684087</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="D29" t="n">
-        <v>222.1153555684087</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="E29" t="n">
-        <v>222.1153555684087</v>
+        <v>884.4093801192507</v>
       </c>
       <c r="F29" t="n">
-        <v>222.1153555684087</v>
+        <v>884.4093801192507</v>
       </c>
       <c r="G29" t="n">
-        <v>222.1153555684087</v>
+        <v>558.9237552812577</v>
       </c>
       <c r="H29" t="n">
         <v>222.1153555684087</v>
@@ -6485,28 +6485,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R29" t="n">
-        <v>1580.096300702048</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S29" t="n">
-        <v>1382.527700869072</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T29" t="n">
-        <v>1159.783781249839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U29" t="n">
-        <v>905.9468981820935</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V29" t="n">
-        <v>574.8840108385228</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W29" t="n">
-        <v>222.1153555684087</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X29" t="n">
-        <v>222.1153555684087</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y29" t="n">
-        <v>222.1153555684087</v>
+        <v>1270.197632717495</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>703.5042351695845</v>
+        <v>757.6011872426429</v>
       </c>
       <c r="C30" t="n">
-        <v>529.0512058884575</v>
+        <v>583.1481579615159</v>
       </c>
       <c r="D30" t="n">
-        <v>529.0512058884575</v>
+        <v>434.2137483002647</v>
       </c>
       <c r="E30" t="n">
-        <v>507.0351915391004</v>
+        <v>274.9762932948092</v>
       </c>
       <c r="F30" t="n">
-        <v>360.5006335659854</v>
+        <v>128.4417353216942</v>
       </c>
       <c r="G30" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I30" t="n">
         <v>32.45932575975218</v>
@@ -6543,19 +6543,19 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809357</v>
+        <v>201.1187329501917</v>
       </c>
       <c r="L30" t="n">
-        <v>534.6972605625989</v>
+        <v>498.8504879318549</v>
       </c>
       <c r="M30" t="n">
-        <v>656.0248753321102</v>
+        <v>898.2686245361178</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609043</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P30" t="n">
         <v>1622.966287987609</v>
@@ -6564,28 +6564,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V30" t="n">
-        <v>1541.568727888341</v>
+        <v>1387.814179755866</v>
       </c>
       <c r="W30" t="n">
-        <v>1287.331371160139</v>
+        <v>1133.576823027665</v>
       </c>
       <c r="X30" t="n">
-        <v>1079.479870954606</v>
+        <v>1133.576823027665</v>
       </c>
       <c r="Y30" t="n">
-        <v>871.7195721896526</v>
+        <v>925.816524262711</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="E31" t="n">
         <v>32.45932575975218</v>
@@ -6640,31 +6640,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>129.4902764300189</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>759.6875413069145</v>
+        <v>937.9362871201211</v>
       </c>
       <c r="C32" t="n">
-        <v>390.7250243665027</v>
+        <v>937.9362871201211</v>
       </c>
       <c r="D32" t="n">
-        <v>32.45932575975218</v>
+        <v>937.9362871201211</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975218</v>
+        <v>552.1480345218768</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975218</v>
+        <v>142.308062807834</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975218</v>
+        <v>142.308062807834</v>
       </c>
       <c r="H32" t="n">
         <v>32.45932575975218</v>
@@ -6722,28 +6722,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U32" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V32" t="n">
-        <v>1536.426713346848</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="W32" t="n">
-        <v>1536.426713346848</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="X32" t="n">
-        <v>1536.426713346848</v>
+        <v>937.9362871201211</v>
       </c>
       <c r="Y32" t="n">
-        <v>1146.287381371036</v>
+        <v>937.9362871201211</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>329.1174114232695</v>
+        <v>784.9017952688528</v>
       </c>
       <c r="C33" t="n">
-        <v>329.1174114232695</v>
+        <v>610.4487659877258</v>
       </c>
       <c r="D33" t="n">
-        <v>329.1174114232695</v>
+        <v>461.5143563264745</v>
       </c>
       <c r="E33" t="n">
-        <v>169.879956417814</v>
+        <v>302.276901321019</v>
       </c>
       <c r="F33" t="n">
-        <v>169.879956417814</v>
+        <v>155.742343347904</v>
       </c>
       <c r="G33" t="n">
-        <v>142.7528837522889</v>
+        <v>155.742343347904</v>
       </c>
       <c r="H33" t="n">
-        <v>32.45932575975218</v>
+        <v>45.44878535536725</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K33" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>470.3844842016425</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M33" t="n">
-        <v>869.8026208059055</v>
+        <v>905.36650176277</v>
       </c>
       <c r="N33" t="n">
-        <v>1271.486777082839</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
@@ -6804,25 +6804,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S33" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T33" t="n">
-        <v>1254.561044051268</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U33" t="n">
-        <v>1026.358376588747</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V33" t="n">
-        <v>791.2062683570039</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W33" t="n">
-        <v>536.9689116288023</v>
+        <v>1368.728931259408</v>
       </c>
       <c r="X33" t="n">
-        <v>329.1174114232695</v>
+        <v>1160.877431053875</v>
       </c>
       <c r="Y33" t="n">
-        <v>329.1174114232695</v>
+        <v>953.1171322889209</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>321.6559039998486</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V34" t="n">
-        <v>1368.281799781722</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1291.903400644038</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="C35" t="n">
-        <v>1291.903400644038</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="D35" t="n">
-        <v>1291.903400644038</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="E35" t="n">
-        <v>906.1151480457941</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F35" t="n">
-        <v>496.2751763317513</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G35" t="n">
-        <v>86.43520461770856</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H35" t="n">
-        <v>86.43520461770856</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975218</v>
@@ -6941,10 +6941,10 @@
         <v>247.3580469011318</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941454</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6959,28 +6959,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.966287987609</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.966287987609</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="V35" t="n">
-        <v>1291.903400644038</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="W35" t="n">
-        <v>1291.903400644038</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="X35" t="n">
-        <v>1291.903400644038</v>
+        <v>1596.193220392832</v>
       </c>
       <c r="Y35" t="n">
-        <v>1291.903400644038</v>
+        <v>1596.193220392832</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.45932575975218</v>
+        <v>612.6748806677822</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975218</v>
+        <v>438.2218513866552</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975218</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975218</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975218</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H36" t="n">
         <v>32.45932575975218</v>
@@ -7017,19 +7017,19 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K36" t="n">
-        <v>236.9655055809357</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L36" t="n">
-        <v>534.6972605625989</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M36" t="n">
-        <v>546.7891136313474</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N36" t="n">
-        <v>948.4732699082806</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O36" t="n">
-        <v>1271.486777082839</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P36" t="n">
         <v>1513.730526286846</v>
@@ -7038,28 +7038,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U36" t="n">
-        <v>1105.675926710251</v>
+        <v>944.9608164894781</v>
       </c>
       <c r="V36" t="n">
-        <v>870.5238184785085</v>
+        <v>709.8087082577354</v>
       </c>
       <c r="W36" t="n">
-        <v>616.2864617503069</v>
+        <v>612.6748806677822</v>
       </c>
       <c r="X36" t="n">
-        <v>408.4349615447741</v>
+        <v>612.6748806677822</v>
       </c>
       <c r="Y36" t="n">
-        <v>200.6746627798202</v>
+        <v>612.6748806677822</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>201.3955086876591</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975218</v>
+        <v>1453.545409657094</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975218</v>
+        <v>1443.170888970756</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975218</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191284</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L37" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M37" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N37" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O37" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U37" t="n">
-        <v>201.3955086876591</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V37" t="n">
-        <v>201.3955086876591</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W37" t="n">
-        <v>201.3955086876591</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X37" t="n">
-        <v>201.3955086876591</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y37" t="n">
-        <v>201.3955086876591</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7148,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>119.9927024164819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C38" t="n">
-        <v>119.9927024164819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D38" t="n">
-        <v>119.9927024164819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E38" t="n">
-        <v>119.9927024164819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F38" t="n">
-        <v>119.9927024164819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G38" t="n">
-        <v>119.9927024164819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H38" t="n">
-        <v>119.9927024164819</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I38" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J38" t="n">
         <v>70.13987180521485</v>
       </c>
       <c r="K38" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011315</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528321</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941452</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
@@ -7196,28 +7196,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.966287987609</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.966287987609</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.966287987609</v>
+        <v>1479.895958610329</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.966287987609</v>
+        <v>1148.833071266758</v>
       </c>
       <c r="W38" t="n">
-        <v>1270.197632717495</v>
+        <v>796.0644159966438</v>
       </c>
       <c r="X38" t="n">
-        <v>896.7318744564154</v>
+        <v>422.5986577355639</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.5925424806037</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>329.1174114232697</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C39" t="n">
-        <v>329.1174114232697</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D39" t="n">
-        <v>329.1174114232697</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E39" t="n">
-        <v>329.1174114232697</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F39" t="n">
-        <v>329.1174114232697</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G39" t="n">
         <v>222.0882603251556</v>
@@ -7248,28 +7248,28 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I39" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J39" t="n">
         <v>61.20822116384403</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384403</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>389.614726231092</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497702</v>
+        <v>789.032862835355</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609044</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
@@ -7284,19 +7284,19 @@
         <v>1254.561044051268</v>
       </c>
       <c r="U39" t="n">
-        <v>1026.358376588747</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V39" t="n">
-        <v>791.2062683570041</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="W39" t="n">
-        <v>536.9689116288025</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="X39" t="n">
-        <v>329.1174114232697</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="Y39" t="n">
-        <v>329.1174114232697</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="C40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="D40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="E40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="F40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="G40" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H40" t="n">
-        <v>256.8779464865154</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I40" t="n">
-        <v>107.8860696601711</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
       <c r="Y40" t="n">
-        <v>361.2466016029501</v>
+        <v>1394.976737089592</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C41" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D41" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E41" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F41" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G41" t="n">
-        <v>558.9237552812577</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H41" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521491</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011317</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L41" t="n">
         <v>519.4894913528324</v>
@@ -7433,28 +7433,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S41" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T41" t="n">
-        <v>1202.653768535401</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U41" t="n">
-        <v>949.0630872570695</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V41" t="n">
-        <v>949.0630872570695</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W41" t="n">
-        <v>949.0630872570695</v>
+        <v>1156.201989944063</v>
       </c>
       <c r="X41" t="n">
-        <v>949.0630872570695</v>
+        <v>782.7362316829833</v>
       </c>
       <c r="Y41" t="n">
-        <v>558.9237552812577</v>
+        <v>392.5968997071716</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>415.2220863658354</v>
+        <v>879.3665274943975</v>
       </c>
       <c r="C42" t="n">
-        <v>415.2220863658354</v>
+        <v>704.9134982132705</v>
       </c>
       <c r="D42" t="n">
-        <v>415.2220863658354</v>
+        <v>555.9790885520192</v>
       </c>
       <c r="E42" t="n">
-        <v>415.2220863658354</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F42" t="n">
-        <v>268.6875283927203</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G42" t="n">
-        <v>130.2751551518905</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H42" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975218</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1910807414154</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M42" t="n">
-        <v>729.6092173456783</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.293373622612</v>
+        <v>1335.799553443795</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T42" t="n">
-        <v>1340.665718993834</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U42" t="n">
-        <v>1112.463051531312</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V42" t="n">
-        <v>877.3109432995698</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W42" t="n">
-        <v>623.0735865713682</v>
+        <v>1368.728931259408</v>
       </c>
       <c r="X42" t="n">
-        <v>415.2220863658354</v>
+        <v>1255.342163279419</v>
       </c>
       <c r="Y42" t="n">
-        <v>415.2220863658354</v>
+        <v>1047.581864514465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I43" t="n">
-        <v>1369.60575604483</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1518.597632871174</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1518.597632871174</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>1518.597632871174</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>461.3554844331429</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="C44" t="n">
-        <v>461.3554844331429</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="D44" t="n">
-        <v>103.0897858263924</v>
+        <v>732.2314731742438</v>
       </c>
       <c r="E44" t="n">
-        <v>103.0897858263924</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F44" t="n">
-        <v>103.0897858263924</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G44" t="n">
-        <v>103.0897858263924</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H44" t="n">
-        <v>103.0897858263924</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975218</v>
@@ -7673,25 +7673,25 @@
         <v>1508.970645214177</v>
       </c>
       <c r="S44" t="n">
-        <v>1311.402045381201</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="T44" t="n">
-        <v>1088.658125761969</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="U44" t="n">
-        <v>834.8212426942227</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="V44" t="n">
-        <v>834.8212426942227</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="W44" t="n">
-        <v>834.8212426942227</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="X44" t="n">
-        <v>461.3554844331429</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="Y44" t="n">
-        <v>461.3554844331429</v>
+        <v>1118.831313238366</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>989.6600854869342</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="C45" t="n">
-        <v>815.2070562058072</v>
+        <v>362.5158823476753</v>
       </c>
       <c r="D45" t="n">
-        <v>666.272646544556</v>
+        <v>213.581472686424</v>
       </c>
       <c r="E45" t="n">
-        <v>507.0351915391004</v>
+        <v>54.34401768096853</v>
       </c>
       <c r="F45" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975218</v>
@@ -7728,19 +7728,19 @@
         <v>61.20822116384403</v>
       </c>
       <c r="K45" t="n">
-        <v>236.9655055809357</v>
+        <v>201.1187329501917</v>
       </c>
       <c r="L45" t="n">
-        <v>534.6972605625989</v>
+        <v>498.8504879318549</v>
       </c>
       <c r="M45" t="n">
-        <v>934.1153971668618</v>
+        <v>898.2686245361178</v>
       </c>
       <c r="N45" t="n">
-        <v>1335.799553443795</v>
+        <v>1299.952780813051</v>
       </c>
       <c r="O45" t="n">
-        <v>1380.722538783602</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="P45" t="n">
         <v>1622.966287987609</v>
@@ -7761,16 +7761,16 @@
         <v>1026.358376588747</v>
       </c>
       <c r="V45" t="n">
-        <v>1026.358376588747</v>
+        <v>791.2062683570039</v>
       </c>
       <c r="W45" t="n">
-        <v>1026.358376588747</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="X45" t="n">
-        <v>1026.358376588747</v>
+        <v>536.9689116288023</v>
       </c>
       <c r="Y45" t="n">
-        <v>1026.358376588747</v>
+        <v>536.9689116288023</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.5981367727104</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C46" t="n">
-        <v>179.5981367727104</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="D46" t="n">
-        <v>179.5981367727104</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975218</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="F46" t="n">
         <v>32.45932575975218</v>
@@ -7843,13 +7843,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X46" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y46" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,10 +8070,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,13 +8307,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L12" t="n">
-        <v>70.10119885733472</v>
+        <v>186.173573874842</v>
       </c>
       <c r="M12" t="n">
-        <v>375.2055399582308</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>455.0874215304796</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>146.9565108232704</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878806</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344739</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026377</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,13 +9252,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>180.1562595611509</v>
       </c>
       <c r="P18" t="n">
-        <v>133.7959972113203</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
         <v>86.93262649026376</v>
       </c>
       <c r="L21" t="n">
-        <v>157.1342855878806</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444137</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>213.8448350321618</v>
       </c>
       <c r="N24" t="n">
-        <v>418.8785602873041</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>73.77211287831324</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>99.73813450275543</v>
@@ -9951,13 +9951,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>86.93262649026376</v>
       </c>
       <c r="L27" t="n">
-        <v>186.1735738748421</v>
+        <v>157.1342855878806</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>228.2563757694028</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>184.8055467452003</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>455.0874215304797</v>
@@ -10206,7 +10206,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q30" t="n">
         <v>99.73813450275543</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>305.8779449388568</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>203.2271928126415</v>
       </c>
       <c r="O33" t="n">
-        <v>67.58604940343855</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,13 +10665,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>74.46639351210651</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>455.0874215304797</v>
@@ -10680,7 +10680,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>104.7567089243584</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>224.2923308271896</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>351.7205150479951</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.73813450275543</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504503</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>86.93262649026376</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,13 +11151,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
-        <v>209.1955478481123</v>
+        <v>357.6534580335538</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>228.2563757694028</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,10 +11388,10 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
-        <v>112.9628022719299</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831324</v>
       </c>
       <c r="Q45" t="n">
         <v>99.73813450275543</v>
@@ -22544,31 +22544,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>236.4659043839653</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,13 +22589,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22623,22 +22623,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>136.6066623937656</v>
       </c>
       <c r="D3" t="n">
-        <v>57.68370943795595</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22647,7 +22647,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,19 +22671,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22692,7 +22692,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22720,13 +22720,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22781,16 +22781,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22805,7 +22805,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,19 +22826,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>149.0074258151476</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>185.9018423672239</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22860,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>98.30360416018239</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22881,7 +22881,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>84.81608375669855</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22911,22 +22911,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,28 +23018,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>380.1208739992256</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23084,10 +23084,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23100,25 +23100,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>126.0369294147366</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23163,7 +23163,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,13 +23197,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23264,19 +23264,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>140.0114066867786</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>330.1753685766006</v>
       </c>
     </row>
     <row r="12">
@@ -23334,19 +23334,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>50.949201609471</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23388,22 +23388,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>197.4265213446724</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23428,13 +23428,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.7266695472104</v>
+        <v>149.6064425243204</v>
       </c>
       <c r="H13" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>74.67247646141476</v>
@@ -23461,10 +23461,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>59.32005692394495</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23501,7 +23501,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.0114066867786</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1.134473744809156</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>140.0114066867787</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>159.1079591185655</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>104.3443644685912</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23634,13 +23634,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23671,7 +23671,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>126.1137933559314</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>198.0222341697041</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23741,16 +23741,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.1344737448091</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G17" t="n">
-        <v>8.971932133631583</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H17" t="n">
-        <v>140.0114066867786</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>140.0114066867787</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23817,19 +23817,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>111.0703437966621</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>2.462352006953068</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,10 +23935,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
-        <v>165.4090611368575</v>
+        <v>59.320056923945</v>
       </c>
       <c r="S19" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>226.8162656893113</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>60.33207136595681</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,25 +23969,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>140.0114066867786</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>1.134473744809156</v>
       </c>
       <c r="G20" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>218.5035212777693</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24054,7 +24054,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>97.60179169132327</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24063,7 +24063,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
-        <v>109.1906224126114</v>
+        <v>2.36297789955502</v>
       </c>
       <c r="I21" t="n">
         <v>78.54202280713804</v>
@@ -24102,19 +24102,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24175,13 +24175,13 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>120.7272614763991</v>
+        <v>187.621475062241</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24221,7 +24221,7 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I23" t="n">
         <v>187.7594695105699</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>216.0952451381421</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>223.6332656874998</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>66.31754283196069</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>44.15676256702886</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24336,7 +24336,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24461,7 +24461,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
-        <v>97.77772203242441</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>10.34611280653039</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24519,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>144.859565639099</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24540,7 +24540,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24570,7 +24570,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>78.52437462028948</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.7266695472104</v>
+        <v>60.81191981453929</v>
       </c>
       <c r="H28" t="n">
         <v>159.8772180037952</v>
@@ -24655,10 +24655,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
-        <v>212.9428526967576</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24686,16 +24686,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.7135041305339</v>
+        <v>92.48273554092088</v>
       </c>
       <c r="H29" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24725,19 +24725,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>70.41439893299193</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24762,22 +24762,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>135.8492262495374</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>42.0056640420989</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
         <v>165.8272126914158</v>
@@ -24816,13 +24816,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>107.4575578983943</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24880,13 +24880,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S31" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
         <v>226.8162656893113</v>
@@ -24898,7 +24898,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G32" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>224.6900660381196</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24962,10 +24962,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>220.5164804230398</v>
@@ -24974,16 +24974,16 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>242.0780795757813</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24993,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>110.1724475695517</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>65.68245780747912</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25044,16 +25044,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25062,7 +25062,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25126,16 +25126,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>226.8162656893113</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>213.1612385756534</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25157,7 +25157,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25172,7 +25172,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>134.3233494411931</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>86.35034942686858</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
@@ -25211,7 +25211,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,25 +25230,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25287,19 +25287,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>78.52437462028965</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>155.532493846866</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>159.8772180037952</v>
+        <v>149.6064425243206</v>
       </c>
       <c r="I37" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>74.67247646141476</v>
@@ -25366,7 +25366,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>128.0520304715574</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25409,7 +25409,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>101.1014266204075</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,10 +25436,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>166.8089740968366</v>
       </c>
       <c r="T38" t="n">
         <v>220.5164804230398</v>
@@ -25448,7 +25448,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25467,22 +25467,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>31.06938992128855</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25524,19 +25524,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>109.963930448481</v>
       </c>
     </row>
     <row r="40">
@@ -25561,16 +25561,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.7266695472104</v>
+        <v>67.93692185148188</v>
       </c>
       <c r="H40" t="n">
-        <v>56.55224943852487</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>26.1976434555354</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25643,10 +25643,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,25 +25673,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2437397715206373</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25722,10 +25722,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>12.35295131439439</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,28 +25752,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>93.52008490328913</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25804,10 +25804,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25828,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R43" t="n">
-        <v>126.1137933559315</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,19 +25862,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>94.89751612881741</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G44" t="n">
         <v>414.7135041305339</v>
@@ -25883,7 +25883,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>117.8353140445961</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25941,7 +25941,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>130.2018754590732</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25953,16 +25953,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.4033673913797</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26001,10 +26001,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7665397437405659</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>106.4446432747563</v>
       </c>
       <c r="G46" t="n">
         <v>167.7266695472104</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457299.1191315952</v>
+        <v>457299.1191315953</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>457299.1191315953</v>
+        <v>457299.1191315952</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>574655.3273933186</v>
+        <v>574655.3273933185</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>574655.3273933184</v>
+        <v>574655.3273933185</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>574655.3273933185</v>
+        <v>574655.3273933183</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>574655.3273933183</v>
+        <v>574655.3273933184</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>574655.3273933186</v>
+        <v>574655.3273933182</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>574655.3273933181</v>
+        <v>574655.3273933184</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>574655.3273933183</v>
+        <v>574655.3273933186</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>574655.3273933186</v>
+        <v>574655.3273933183</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>574655.3273933184</v>
+        <v>574655.3273933185</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>574655.3273933185</v>
+        <v>574655.3273933181</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>174468.7061578989</v>
+      </c>
+      <c r="C2" t="n">
         <v>174468.706157899</v>
       </c>
-      <c r="C2" t="n">
-        <v>174468.7061578989</v>
-      </c>
       <c r="D2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="E2" t="n">
         <v>224310.341917837</v>
       </c>
       <c r="F2" t="n">
-        <v>224310.341917837</v>
+        <v>224310.3419178369</v>
       </c>
       <c r="G2" t="n">
         <v>224310.3419178369</v>
@@ -26332,16 +26332,16 @@
         <v>224310.3419178369</v>
       </c>
       <c r="I2" t="n">
+        <v>224310.3419178369</v>
+      </c>
+      <c r="J2" t="n">
         <v>224310.341917837</v>
-      </c>
-      <c r="J2" t="n">
-        <v>224310.3419178369</v>
       </c>
       <c r="K2" t="n">
         <v>224310.3419178369</v>
       </c>
       <c r="L2" t="n">
-        <v>224310.3419178369</v>
+        <v>224310.3419178368</v>
       </c>
       <c r="M2" t="n">
         <v>224310.3419178369</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910621</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244791</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>52190.24361124207</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="C4" t="n">
-        <v>52190.24361124207</v>
+        <v>50385.00392753456</v>
       </c>
       <c r="D4" t="n">
-        <v>52190.24361124207</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="E4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="F4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="G4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="H4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="I4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="J4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="K4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="L4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808074</v>
       </c>
       <c r="M4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="N4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
       <c r="O4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808075</v>
       </c>
       <c r="P4" t="n">
-        <v>53413.80855851863</v>
+        <v>51570.48828808073</v>
       </c>
     </row>
     <row r="5">
@@ -26482,13 +26482,13 @@
         <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
@@ -26503,7 +26503,7 @@
         <v>27864.35291375756</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="O5" t="n">
         <v>27864.35291375756</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6772.2377486525</v>
+        <v>-4966.998064945103</v>
       </c>
       <c r="C6" t="n">
-        <v>73997.19378289519</v>
+        <v>75802.43346660276</v>
       </c>
       <c r="D6" t="n">
-        <v>73997.19378289519</v>
+        <v>75802.43346660273</v>
       </c>
       <c r="E6" t="n">
-        <v>-23907.98967968591</v>
+        <v>-22064.66940924808</v>
       </c>
       <c r="F6" t="n">
-        <v>143032.1804455608</v>
+        <v>144875.5007159986</v>
       </c>
       <c r="G6" t="n">
-        <v>143032.1804455607</v>
+        <v>144875.5007159986</v>
       </c>
       <c r="H6" t="n">
-        <v>143032.1804455607</v>
+        <v>144875.5007159986</v>
       </c>
       <c r="I6" t="n">
-        <v>143032.1804455608</v>
+        <v>144875.5007159986</v>
       </c>
       <c r="J6" t="n">
-        <v>79972.23784645452</v>
+        <v>81815.55811689244</v>
       </c>
       <c r="K6" t="n">
-        <v>143032.1804455607</v>
+        <v>144875.5007159986</v>
       </c>
       <c r="L6" t="n">
-        <v>143032.1804455607</v>
+        <v>144875.5007159985</v>
       </c>
       <c r="M6" t="n">
-        <v>101981.4825831128</v>
+        <v>103824.8028535507</v>
       </c>
       <c r="N6" t="n">
-        <v>143032.1804455607</v>
+        <v>144875.5007159986</v>
       </c>
       <c r="O6" t="n">
-        <v>143032.1804455607</v>
+        <v>144875.5007159986</v>
       </c>
       <c r="P6" t="n">
-        <v>143032.1804455607</v>
+        <v>144875.5007159986</v>
       </c>
     </row>
   </sheetData>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.014288877659</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32169,7 +32169,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32178,16 +32178,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,22 +32224,22 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011533</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046562</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I17" t="n">
-        <v>22.71642005983598</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629218</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K17" t="n">
-        <v>74.952696146459</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L17" t="n">
-        <v>92.98544734044657</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M17" t="n">
         <v>103.4642265438473</v>
@@ -32248,25 +32248,25 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971764</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737666</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134784</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R17" t="n">
         <v>37.01343159545223</v>
       </c>
       <c r="S17" t="n">
-        <v>13.42715575159879</v>
+        <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
         <v>2.57936914109155</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809225</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,7 +32306,7 @@
         <v>0.3152676547891928</v>
       </c>
       <c r="H18" t="n">
-        <v>3.044821823885099</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
         <v>10.85461004427703</v>
@@ -32315,22 +32315,22 @@
         <v>29.78587961321931</v>
       </c>
       <c r="K18" t="n">
-        <v>50.90881248409522</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253943</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864764</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975588</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100587</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P18" t="n">
-        <v>60.202294536017</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q18" t="n">
         <v>40.24363958326609</v>
@@ -32339,7 +32339,7 @@
         <v>19.57424965436761</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422064</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32382,34 +32382,34 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483453</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H19" t="n">
-        <v>2.349954503644381</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177515</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J19" t="n">
-        <v>18.68670365525801</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
         <v>30.70799443412594</v>
       </c>
       <c r="L19" t="n">
-        <v>39.29566048323128</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M19" t="n">
-        <v>41.43176432141108</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N19" t="n">
-        <v>40.44660957039455</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.35899041172068</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P19" t="n">
-        <v>31.96707026225441</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q19" t="n">
         <v>22.13234246735009</v>
@@ -32418,7 +32418,7 @@
         <v>11.88433024031196</v>
       </c>
       <c r="S19" t="n">
-        <v>4.606199165118889</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,10 +34790,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,13 +35027,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O9" t="n">
-        <v>169.9091475161414</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>116.0723750175073</v>
       </c>
       <c r="M12" t="n">
-        <v>312.9531394448602</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35665,7 +35665,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
-        <v>60.02388433300669</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054588</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
         <v>405.7415719969023</v>
@@ -35741,7 +35741,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
         <v>110.3391532330937</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167966</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K17" t="n">
         <v>179.0082576726432</v>
@@ -35893,7 +35893,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N17" t="n">
-        <v>313.0722467132386</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O17" t="n">
         <v>249.9811662707763</v>
@@ -35902,7 +35902,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680303</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
-        <v>326.276269873291</v>
+        <v>112.5702101577123</v>
       </c>
       <c r="P18" t="n">
-        <v>60.0238843330071</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
         <v>110.3391532330937</v>
@@ -36042,16 +36042,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243084</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354741</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M19" t="n">
-        <v>81.01564128325167</v>
+        <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962314</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O19" t="n">
         <v>61.94411832576036</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>87.03308673054588</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
         <v>403.4526632366292</v>
@@ -36215,10 +36215,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>177.5326105223148</v>
@@ -36443,16 +36443,16 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366292</v>
+        <v>151.5924345187911</v>
       </c>
       <c r="N24" t="n">
-        <v>369.5327107537267</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>116.0723750175074</v>
+        <v>87.03308673054588</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366292</v>
@@ -36911,13 +36911,13 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223148</v>
+        <v>141.3237492791391</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M30" t="n">
-        <v>122.5531462318296</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N30" t="n">
         <v>405.7415719969023</v>
@@ -36926,7 +36926,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696146</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>177.5326105223148</v>
       </c>
       <c r="L33" t="n">
-        <v>235.776746081522</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N33" t="n">
-        <v>405.7415719969023</v>
+        <v>153.8813432790641</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>12.21399299873585</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N36" t="n">
         <v>405.7415719969023</v>
@@ -37400,7 +37400,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.6906557616239</v>
+        <v>30.98459604604517</v>
       </c>
       <c r="Q36" t="n">
         <v>110.3391532330937</v>
@@ -37622,25 +37622,25 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L39" t="n">
-        <v>300.7391464461244</v>
+        <v>154.1911319698549</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366292</v>
       </c>
       <c r="N39" t="n">
-        <v>302.3746655144177</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.06115762167952</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726432</v>
       </c>
       <c r="L41" t="n">
-        <v>274.8802469209098</v>
+        <v>274.8802469209097</v>
       </c>
       <c r="M41" t="n">
         <v>322.6315268094071</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>177.5326105223148</v>
       </c>
       <c r="L42" t="n">
         <v>300.7391464461244</v>
@@ -37871,13 +37871,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
-        <v>141.6094984446738</v>
+        <v>290.0674086301152</v>
       </c>
       <c r="P42" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>29.03928828696146</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223148</v>
+        <v>141.3237492791391</v>
       </c>
       <c r="L45" t="n">
         <v>300.7391464461244</v>
@@ -38108,10 +38108,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
-        <v>45.37675286849139</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
